--- a/data/trans_dic/P78A_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,0; 95,66</t>
+          <t>54,09; 95,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,46; 85,9</t>
+          <t>79,53; 85,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,5; 85,81</t>
+          <t>79,12; 85,83</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,11; 85,97</t>
+          <t>62,61; 86,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,67; 96,63</t>
+          <t>87,03; 96,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,66; 94,55</t>
+          <t>83,77; 94,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,6; 100,0</t>
+          <t>55,47; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,38; 95,11</t>
+          <t>68,15; 94,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,31; 95,14</t>
+          <t>72,61; 95,34</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,64; 86,55</t>
+          <t>67,63; 86,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,2; 92,26</t>
+          <t>84,39; 92,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,39; 91,28</t>
+          <t>83,09; 90,58</t>
         </is>
       </c>
     </row>
